--- a/code/output/battery-analysis/descriptive_stats.xlsx
+++ b/code/output/battery-analysis/descriptive_stats.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code files/pilot/Battery_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/battery-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9EECD-0525-0E4E-BA28-1BF76090BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6586E24B-80A1-5B47-AFD4-BCADDCC9776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="800" windowWidth="28040" windowHeight="17060" xr2:uid="{AFC09E07-6397-D849-8680-56A5F2A35D22}"/>
+    <workbookView xWindow="220" yWindow="800" windowWidth="28040" windowHeight="17060" activeTab="1" xr2:uid="{AFC09E07-6397-D849-8680-56A5F2A35D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Used_BEV" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="142">
   <si>
     <t>Variables</t>
   </si>
@@ -426,6 +427,42 @@
   </si>
   <si>
     <t>less likely to live in SF</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>dynata.x</t>
+  </si>
+  <si>
+    <t>prolific.x</t>
+  </si>
+  <si>
+    <t>dynata.y</t>
+  </si>
+  <si>
+    <t>prolific.y</t>
+  </si>
+  <si>
+    <t>Veh_primary_fuel</t>
+  </si>
+  <si>
+    <t>bev</t>
+  </si>
+  <si>
+    <t>hev</t>
+  </si>
+  <si>
+    <t>icev</t>
+  </si>
+  <si>
+    <t>icev, hev</t>
+  </si>
+  <si>
+    <t>Showing 1 to 9 of 88 entries, 7 total columns</t>
   </si>
 </sst>
 </file>
@@ -520,23 +557,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,59 +579,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -948,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A48B06B-58CC-D441-B516-5AED27B207C1}">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD75"/>
@@ -961,110 +969,90 @@
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="31" customWidth="1"/>
-    <col min="5" max="9" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="20" customWidth="1"/>
+    <col min="5" max="9" width="8" style="6" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" customWidth="1"/>
     <col min="11" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="4"/>
-    <col min="17" max="21" width="10.83203125" style="4" customWidth="1"/>
-    <col min="22" max="26" width="10.83203125" style="4"/>
+    <col min="17" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E1" s="16" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:26" s="14" customFormat="1" ht="46" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-    </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+    </row>
+    <row r="3" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -1074,62 +1062,62 @@
       <c r="C4" s="1">
         <v>138</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="7">
+      <c r="D4" s="22"/>
+      <c r="E4" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.56599999999999995</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.41899999999999998</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.55100000000000005</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>0.48399999999999999</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.52600000000000002</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="19">
+      <c r="Q4" s="13">
         <f>E4-K4</f>
         <v>-1.2999999999999901E-2</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="13">
         <f t="shared" ref="R4:U4" si="0">F4-L4</f>
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="13">
         <f t="shared" si="0"/>
         <v>-7.6000000000000068E-2</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="13">
         <f t="shared" si="0"/>
         <v>5.1000000000000045E-2</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="13">
         <f t="shared" si="0"/>
         <v>1.9000000000000017E-2</v>
       </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -1139,59 +1127,59 @@
       <c r="C5" s="1">
         <v>127</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="7">
+      <c r="D5" s="22"/>
+      <c r="E5" s="4">
         <v>0.434</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.49199999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.434</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.42899999999999999</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>0.5</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="13">
         <f t="shared" ref="Q5:Q60" si="1">E5-K5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="13">
         <f t="shared" ref="R5:R61" si="2">F5-L5</f>
         <v>-2.7999999999999914E-2</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="13">
         <f t="shared" ref="S5:S61" si="3">G5-M5</f>
         <v>6.3E-2</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="13">
         <f t="shared" ref="T5:T61" si="4">H5-N5</f>
         <v>-3.4999999999999976E-2</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="13">
         <f t="shared" ref="U5:U61" si="5">I5-O5</f>
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -1201,375 +1189,375 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="7">
+      <c r="D6" s="22"/>
+      <c r="E6" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.02</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q6" s="19" t="e">
+      <c r="Q6" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R6" s="19" t="e">
+      <c r="R6" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="13">
         <f t="shared" si="3"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="T6" s="19" t="e">
+      <c r="T6" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="19" t="e">
+      <c r="U6" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>31</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>0.158</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>0.22700000000000001</v>
       </c>
       <c r="J7" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.122</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.113</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="13">
         <f t="shared" si="2"/>
         <v>1.7999999999999988E-2</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="13">
         <f t="shared" si="3"/>
         <v>-2.3999999999999994E-2</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="13">
         <f t="shared" si="4"/>
         <v>-1.3999999999999999E-2</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="13">
         <f t="shared" si="5"/>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>237</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="7">
+      <c r="D8" s="22"/>
+      <c r="E8" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>0.90100000000000002</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>0.77300000000000002</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.86</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>0.878</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>0.88700000000000001</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="13">
         <f t="shared" si="2"/>
         <v>-1.8000000000000016E-2</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="13">
         <f t="shared" si="3"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="13">
         <f t="shared" si="4"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="13">
         <f t="shared" si="5"/>
         <v>-9.4999999999999973E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>185</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="7">
+      <c r="D9" s="22"/>
+      <c r="E9" s="4">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>0.63900000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>0.746</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>0.318</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0.72399999999999998</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0.81399999999999995</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>0.755</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="13">
         <f t="shared" si="1"/>
         <v>-3.9999999999999925E-2</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="13">
         <f t="shared" si="2"/>
         <v>8.1000000000000072E-2</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="13">
         <f t="shared" si="3"/>
         <v>-0.11599999999999999</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="13">
         <f t="shared" si="4"/>
         <v>0.14900000000000002</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="13">
         <f>I9-O9</f>
         <v>-0.23500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>62</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="7">
+      <c r="D10" s="22"/>
+      <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>0.5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0.224</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>0.316</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="13">
         <f t="shared" si="1"/>
         <v>2.5999999999999995E-2</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="13">
         <f t="shared" si="2"/>
         <v>-0.11400000000000002</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="13">
         <f t="shared" si="3"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="13">
         <f t="shared" si="4"/>
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="13">
         <f t="shared" si="5"/>
         <v>0.184</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>21</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="7">
+      <c r="D11" s="22"/>
+      <c r="E11" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>0.182</v>
       </c>
       <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000005E-2</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="13">
         <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="13">
         <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="13">
         <f t="shared" si="4"/>
         <v>-5.5E-2</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="13">
         <f t="shared" si="5"/>
         <v>4.9999999999999989E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1579,59 +1567,59 @@
       <c r="C12" s="1">
         <v>58</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="7">
+      <c r="D12" s="22"/>
+      <c r="E12" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0.105</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>0.246</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>0.186</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>0.245</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>0.129</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="13">
         <f t="shared" si="2"/>
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="13">
         <f t="shared" si="4"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="13">
         <f t="shared" si="5"/>
         <v>-4.1000000000000009E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -1641,59 +1629,59 @@
       <c r="C13" s="1">
         <v>87</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="7">
+      <c r="D13" s="22"/>
+      <c r="E13" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>0.158</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.316</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>0.435</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>0.316</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="13">
         <f t="shared" si="1"/>
         <v>3.8999999999999979E-2</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="13">
         <f t="shared" si="2"/>
         <v>-7.5000000000000011E-2</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="13">
         <f t="shared" si="3"/>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="13">
         <f t="shared" si="4"/>
         <v>-9.6999999999999975E-2</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="13">
         <f t="shared" si="5"/>
         <v>9.2999999999999972E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -1703,121 +1691,121 @@
       <c r="C14" s="1">
         <v>83</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="7">
+      <c r="D14" s="22"/>
+      <c r="E14" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>0.26500000000000001</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="13">
         <f t="shared" si="1"/>
         <v>-2.5999999999999968E-2</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="13">
         <f t="shared" si="2"/>
         <v>4.1999999999999982E-2</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="13">
         <f t="shared" si="3"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14" s="13">
         <f t="shared" si="4"/>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14" s="13">
         <f t="shared" si="5"/>
         <v>-1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>40</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="7">
+      <c r="D15" s="22"/>
+      <c r="E15" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>0.25600000000000001</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000005E-2</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="13">
         <f t="shared" si="2"/>
         <v>0.11199999999999999</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="13">
         <f t="shared" si="3"/>
         <v>-7.2999999999999982E-2</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="13">
         <f t="shared" si="4"/>
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="13">
         <f t="shared" si="5"/>
         <v>-4.1000000000000009E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1827,54 +1815,54 @@
       <c r="C16" s="1">
         <v>15</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="7">
+      <c r="D16" s="22"/>
+      <c r="E16" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <v>0.182</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>0.02</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="19" t="e">
+      <c r="R16" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="13">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="13">
         <f t="shared" si="4"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="13">
         <f t="shared" si="5"/>
         <v>4.9999999999999989E-2</v>
       </c>
@@ -1889,54 +1877,54 @@
       <c r="C17" s="1">
         <v>252</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="7">
+      <c r="D17" s="22"/>
+      <c r="E17" s="4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>0.95299999999999996</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>0.98</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>0.96799999999999997</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="13">
         <f t="shared" si="2"/>
         <v>4.7000000000000042E-2</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="13">
         <f t="shared" si="3"/>
         <v>-4.599999999999993E-2</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="13">
         <f t="shared" si="4"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="13">
         <f t="shared" si="5"/>
         <v>-5.0000000000000044E-2</v>
       </c>
@@ -1951,54 +1939,54 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="7">
+      <c r="D18" s="22"/>
+      <c r="E18" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="19" t="e">
+      <c r="R18" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S18" s="19" t="e">
+      <c r="S18" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T18" s="19" t="e">
+      <c r="T18" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U18" s="19" t="e">
+      <c r="U18" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -2013,54 +2001,54 @@
       <c r="C19" s="1">
         <v>112</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="7">
+      <c r="D19" s="22"/>
+      <c r="E19" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>0.27600000000000002</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>0.51600000000000001</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999956E-2</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="13">
         <f t="shared" si="2"/>
         <v>8.9999999999999525E-3</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="13">
         <f t="shared" si="3"/>
         <v>-1.4999999999999958E-2</v>
       </c>
-      <c r="T19" s="19">
+      <c r="T19" s="13">
         <f t="shared" si="4"/>
         <v>1.9000000000000017E-2</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="13">
         <f t="shared" si="5"/>
         <v>-4.4999999999999984E-2</v>
       </c>
@@ -2075,54 +2063,54 @@
       <c r="C20" s="1">
         <v>65</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="7">
+      <c r="D20" s="22"/>
+      <c r="E20" s="4">
         <v>0.316</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>0.23</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="4">
         <v>0.155</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>0.316</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>0.224</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>0.21</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="13">
         <f t="shared" si="2"/>
         <v>5.400000000000002E-2</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="13">
         <f t="shared" si="3"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="13">
         <f t="shared" si="4"/>
         <v>-5.4999999999999993E-2</v>
       </c>
-      <c r="U20" s="19">
+      <c r="U20" s="13">
         <f t="shared" si="5"/>
         <v>6.2000000000000027E-2</v>
       </c>
@@ -2137,54 +2125,54 @@
       <c r="C21" s="1">
         <v>90</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="7">
+      <c r="D21" s="22"/>
+      <c r="E21" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>0.377</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="4">
         <v>0.31</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="13">
         <f t="shared" si="2"/>
         <v>-6.3E-2</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="13">
         <f t="shared" si="4"/>
         <v>3.5999999999999976E-2</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U21" s="13">
         <f t="shared" si="5"/>
         <v>-1.5999999999999959E-2</v>
       </c>
@@ -2199,181 +2187,181 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="7">
+      <c r="D22" s="22"/>
+      <c r="E22" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="19" t="e">
+      <c r="R22" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S22" s="19" t="e">
+      <c r="S22" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T22" s="19" t="e">
+      <c r="T22" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U22" s="19" t="e">
+      <c r="U22" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>149</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="7">
+      <c r="D23" s="22"/>
+      <c r="E23" s="4">
         <v>0.5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>0.57399999999999995</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>0.56299999999999994</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>0.5</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>0.52600000000000002</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>0.58099999999999996</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>0.61199999999999999</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>0.48399999999999999</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="13">
         <f t="shared" si="1"/>
         <v>-2.6000000000000023E-2</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="13">
         <f t="shared" si="2"/>
         <v>7.7000000000000068E-2</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="13">
         <f t="shared" si="3"/>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="13">
         <f t="shared" si="4"/>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="U23" s="19">
+      <c r="U23" s="13">
         <f t="shared" si="5"/>
         <v>-0.13200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>113</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="7">
+      <c r="D24" s="22"/>
+      <c r="E24" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>0.38</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>0.5</v>
       </c>
       <c r="J24" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>0.46100000000000002</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>0.41899999999999998</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>0.45200000000000001</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999956E-2</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="13">
         <f t="shared" si="2"/>
         <v>-7.6999999999999957E-2</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="13">
         <f t="shared" si="3"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="13">
         <f t="shared" si="4"/>
         <v>-7.2000000000000008E-2</v>
       </c>
-      <c r="U24" s="19">
+      <c r="U24" s="13">
         <f t="shared" si="5"/>
         <v>0.13200000000000001</v>
       </c>
@@ -2388,305 +2376,305 @@
       <c r="C25" s="1">
         <v>6</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="7">
+      <c r="D25" s="22"/>
+      <c r="E25" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>0.02</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="R25" s="19" t="e">
+      <c r="R25" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S25" s="19" t="e">
+      <c r="S25" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="13">
         <f t="shared" si="4"/>
         <v>-9.0000000000000011E-3</v>
       </c>
-      <c r="U25" s="19" t="e">
+      <c r="U25" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>171</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="7">
+      <c r="D26" s="22"/>
+      <c r="E26" s="4">
         <v>0.67100000000000004</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>0.63900000000000001</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>0.62</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>0.65100000000000002</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="13">
         <f t="shared" si="2"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="13">
         <f t="shared" si="3"/>
         <v>-3.400000000000003E-2</v>
       </c>
-      <c r="T26" s="19">
+      <c r="T26" s="13">
         <f t="shared" si="4"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="U26" s="19">
+      <c r="U26" s="13">
         <f t="shared" si="5"/>
         <v>-5.9999999999999942E-2</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>21</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="7">
+      <c r="D27" s="22"/>
+      <c r="E27" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <v>0.105</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>0.127</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="13">
         <f t="shared" si="1"/>
         <v>-1.3999999999999999E-2</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="13">
         <f t="shared" si="2"/>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="13">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="13">
         <f t="shared" si="4"/>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="U27" s="19">
+      <c r="U27" s="13">
         <f t="shared" si="5"/>
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1">
         <v>71</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="7">
+      <c r="D28" s="22"/>
+      <c r="E28" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="4">
         <v>0.254</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>0.40899999999999997</v>
       </c>
       <c r="J28" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>0.25</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>0.245</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="13">
         <f t="shared" si="2"/>
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="13">
         <f t="shared" si="3"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="T28" s="19">
+      <c r="T28" s="13">
         <f t="shared" si="4"/>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="U28" s="19">
+      <c r="U28" s="13">
         <f t="shared" si="5"/>
         <v>6.6999999999999948E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="7">
+      <c r="D29" s="22"/>
+      <c r="E29" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000001E-2</v>
       </c>
-      <c r="R29" s="19" t="e">
+      <c r="R29" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="13">
         <f t="shared" si="3"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="T29" s="19" t="e">
+      <c r="T29" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U29" s="19" t="e">
+      <c r="U29" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -2701,54 +2689,54 @@
       <c r="C30" s="1">
         <v>15</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="7">
+      <c r="D30" s="22"/>
+      <c r="E30" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999984E-2</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="13">
         <f t="shared" si="2"/>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="13">
         <f t="shared" si="3"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="T30" s="19" t="e">
+      <c r="T30" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U30" s="19">
+      <c r="U30" s="13">
         <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
@@ -2763,54 +2751,54 @@
       <c r="C31" s="1">
         <v>23</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="7">
+      <c r="D31" s="22"/>
+      <c r="E31" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <v>0.115</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="13">
         <f t="shared" si="2"/>
         <v>-3.7000000000000005E-2</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S31" s="13">
         <f t="shared" si="3"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="T31" s="19">
+      <c r="T31" s="13">
         <f t="shared" si="4"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="U31" s="19">
+      <c r="U31" s="13">
         <f t="shared" si="5"/>
         <v>-3.4000000000000002E-2</v>
       </c>
@@ -2825,54 +2813,54 @@
       <c r="C32" s="1">
         <v>89</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="7">
+      <c r="D32" s="22"/>
+      <c r="E32" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="4">
         <v>0.316</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="4">
         <v>0.29499999999999998</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>0.34899999999999998</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>0.158</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="13">
         <f t="shared" si="2"/>
         <v>-3.2999999999999974E-2</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="13">
         <f t="shared" si="3"/>
         <v>-0.11299999999999999</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T32" s="13">
         <f t="shared" si="4"/>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U32" s="13">
         <f t="shared" si="5"/>
         <v>6.9000000000000006E-2</v>
       </c>
@@ -2887,54 +2875,54 @@
       <c r="C33" s="1">
         <v>100</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="7">
+      <c r="D33" s="22"/>
+      <c r="E33" s="4">
         <v>0.316</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <v>0.5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>0.41899999999999998</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <v>0.38700000000000001</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="13">
         <f t="shared" si="1"/>
         <v>-2.6000000000000023E-2</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="13">
         <f t="shared" si="2"/>
         <v>8.1000000000000016E-2</v>
       </c>
-      <c r="S33" s="19">
+      <c r="S33" s="13">
         <f t="shared" si="3"/>
         <v>9.8999999999999977E-2</v>
       </c>
-      <c r="T33" s="19">
+      <c r="T33" s="13">
         <f t="shared" si="4"/>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="U33" s="19">
+      <c r="U33" s="13">
         <f t="shared" si="5"/>
         <v>-0.14799999999999996</v>
       </c>
@@ -2949,367 +2937,367 @@
       <c r="C34" s="1">
         <v>41</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="7">
+      <c r="D34" s="22"/>
+      <c r="E34" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <v>0.40899999999999997</v>
       </c>
       <c r="J34" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>0.21</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>0.316</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="13">
         <f t="shared" si="2"/>
         <v>8.9999999999999941E-3</v>
       </c>
-      <c r="S34" s="19">
+      <c r="S34" s="13">
         <f t="shared" si="3"/>
         <v>-1.1999999999999983E-2</v>
       </c>
-      <c r="T34" s="19">
+      <c r="T34" s="13">
         <f t="shared" si="4"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="U34" s="19">
+      <c r="U34" s="13">
         <f t="shared" si="5"/>
         <v>9.2999999999999972E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>17</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="7">
+      <c r="D35" s="22"/>
+      <c r="E35" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>0.122</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000005E-2</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="13">
         <f t="shared" si="2"/>
         <v>2.9999999999999992E-3</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="13">
         <f t="shared" si="3"/>
         <v>-3.9999999999999994E-2</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="13">
         <f t="shared" si="4"/>
         <v>2.2000000000000006E-2</v>
       </c>
-      <c r="U35" s="19">
+      <c r="U35" s="13">
         <f t="shared" si="5"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="1">
         <v>41</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="7">
+      <c r="D36" s="22"/>
+      <c r="E36" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>0.105</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <v>0.02</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>0.184</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="13">
         <f t="shared" si="1"/>
         <v>-1.2999999999999998E-2</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="13">
         <f t="shared" si="2"/>
         <v>3.9999999999999758E-3</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="13">
         <f t="shared" si="3"/>
         <v>7.8E-2</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="13">
         <f t="shared" si="4"/>
         <v>-4.4999999999999984E-2</v>
       </c>
-      <c r="U36" s="19">
+      <c r="U36" s="13">
         <f t="shared" si="5"/>
         <v>4.300000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1">
         <v>113</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="7">
+      <c r="D37" s="22"/>
+      <c r="E37" s="4">
         <v>0.5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="4">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <v>0.46899999999999997</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="13">
         <f t="shared" si="1"/>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R37" s="13">
         <f t="shared" si="2"/>
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="S37" s="19">
+      <c r="S37" s="13">
         <f t="shared" si="3"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="T37" s="19">
+      <c r="T37" s="13">
         <f t="shared" si="4"/>
         <v>2.899999999999997E-2</v>
       </c>
-      <c r="U37" s="19">
+      <c r="U37" s="13">
         <f t="shared" si="5"/>
         <v>-0.11500000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="1">
         <v>73</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="7">
+      <c r="D38" s="22"/>
+      <c r="E38" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="4">
         <v>0.23</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <v>0.318</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>0.186</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R38" s="13">
         <f t="shared" si="2"/>
         <v>5.099999999999999E-2</v>
       </c>
-      <c r="S38" s="19">
+      <c r="S38" s="13">
         <f t="shared" si="3"/>
         <v>-5.5999999999999966E-2</v>
       </c>
-      <c r="T38" s="19">
+      <c r="T38" s="13">
         <f t="shared" si="4"/>
         <v>-1.5000000000000013E-2</v>
       </c>
-      <c r="U38" s="19">
+      <c r="U38" s="13">
         <f t="shared" si="5"/>
         <v>5.4999999999999993E-2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="1">
         <v>24</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="7">
+      <c r="D39" s="22"/>
+      <c r="E39" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="4">
         <v>0.115</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <v>0.158</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="13">
         <f t="shared" si="2"/>
         <v>8.9999999999999941E-3</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="13">
         <f t="shared" si="3"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="13">
         <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U39" s="19">
+      <c r="U39" s="13">
         <f t="shared" si="5"/>
         <v>-2.1999999999999992E-2</v>
       </c>
@@ -3324,54 +3312,54 @@
       <c r="C40" s="1">
         <v>34</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="7">
+      <c r="D40" s="22"/>
+      <c r="E40" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <v>0.02</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="13">
         <f t="shared" si="1"/>
         <v>-1.4000000000000012E-2</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R40" s="13">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="S40" s="19">
+      <c r="S40" s="13">
         <f t="shared" si="3"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="T40" s="19">
+      <c r="T40" s="13">
         <f t="shared" si="4"/>
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="U40" s="19" t="e">
+      <c r="U40" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -3386,54 +3374,54 @@
       <c r="C41" s="1">
         <v>75</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="7">
+      <c r="D41" s="22"/>
+      <c r="E41" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
         <v>0.316</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="4">
         <v>0.23</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <v>0.161</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="4">
         <v>0.158</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="13">
         <f t="shared" si="1"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R41" s="13">
         <f t="shared" si="2"/>
         <v>-7.9000000000000015E-2</v>
       </c>
-      <c r="S41" s="19">
+      <c r="S41" s="13">
         <f t="shared" si="3"/>
         <v>-5.5999999999999966E-2</v>
       </c>
-      <c r="T41" s="19">
+      <c r="T41" s="13">
         <f t="shared" si="4"/>
         <v>7.7999999999999986E-2</v>
       </c>
-      <c r="U41" s="19">
+      <c r="U41" s="13">
         <f t="shared" si="5"/>
         <v>-2.1999999999999992E-2</v>
       </c>
@@ -3448,54 +3436,54 @@
       <c r="C42" s="1">
         <v>59</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="7">
+      <c r="D42" s="22"/>
+      <c r="E42" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="4">
         <v>0.316</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>0.158</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <v>0.105</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R42" s="13">
         <f t="shared" si="2"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S42" s="13">
         <f t="shared" si="3"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="T42" s="19">
+      <c r="T42" s="13">
         <f t="shared" si="4"/>
         <v>-2.4999999999999994E-2</v>
       </c>
-      <c r="U42" s="19">
+      <c r="U42" s="13">
         <f t="shared" si="5"/>
         <v>3.1000000000000014E-2</v>
       </c>
@@ -3510,54 +3498,54 @@
       <c r="C43" s="1">
         <v>65</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="7">
+      <c r="D43" s="22"/>
+      <c r="E43" s="4">
         <v>0.105</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="4">
         <v>0.35199999999999998</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>0.186</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="4">
         <v>0.224</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="4">
         <v>0.41899999999999998</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R43" s="13">
         <f t="shared" si="2"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S43" s="13">
         <f t="shared" si="3"/>
         <v>-1.100000000000001E-2</v>
       </c>
-      <c r="T43" s="19">
+      <c r="T43" s="13">
         <f t="shared" si="4"/>
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="U43" s="19">
+      <c r="U43" s="13">
         <f t="shared" si="5"/>
         <v>6.6999999999999948E-2</v>
       </c>
@@ -3572,54 +3560,54 @@
       <c r="C44" s="1">
         <v>35</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="4">
         <v>0.18</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="Q44" s="19" t="e">
+      <c r="Q44" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R44" s="19">
+      <c r="R44" s="13">
         <f t="shared" si="2"/>
         <v>-0.04</v>
       </c>
-      <c r="S44" s="19">
+      <c r="S44" s="13">
         <f t="shared" si="3"/>
         <v>7.8E-2</v>
       </c>
-      <c r="T44" s="19">
+      <c r="T44" s="13">
         <f t="shared" si="4"/>
         <v>4.8000000000000015E-2</v>
       </c>
-      <c r="U44" s="19">
+      <c r="U44" s="13">
         <f t="shared" si="5"/>
         <v>-0.122</v>
       </c>
@@ -3634,54 +3622,54 @@
       <c r="C45" s="1">
         <v>23</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="7">
+      <c r="D45" s="22"/>
+      <c r="E45" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>0.184</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="13">
         <f t="shared" si="1"/>
         <v>-1.2999999999999984E-2</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R45" s="13">
         <f t="shared" si="2"/>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="S45" s="19">
+      <c r="S45" s="13">
         <f t="shared" si="3"/>
         <v>2.1000000000000005E-2</v>
       </c>
-      <c r="T45" s="19">
+      <c r="T45" s="13">
         <f t="shared" si="4"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="U45" s="19">
+      <c r="U45" s="13">
         <f t="shared" si="5"/>
         <v>3.7999999999999999E-2</v>
       </c>
@@ -3696,54 +3684,54 @@
       <c r="C46" s="1">
         <v>58</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="7">
+      <c r="D46" s="22"/>
+      <c r="E46" s="4">
         <v>0.224</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="4">
         <v>0.115</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>0.25</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <v>0.184</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <v>0.161</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="4">
         <v>0.158</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="Q46" s="13">
         <f t="shared" si="1"/>
         <v>-2.5999999999999995E-2</v>
       </c>
-      <c r="R46" s="19">
+      <c r="R46" s="13">
         <f t="shared" si="2"/>
         <v>9.4999999999999973E-2</v>
       </c>
-      <c r="S46" s="19">
+      <c r="S46" s="13">
         <f t="shared" si="3"/>
         <v>-6.8999999999999992E-2</v>
       </c>
-      <c r="T46" s="19">
+      <c r="T46" s="13">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="U46" s="19">
+      <c r="U46" s="13">
         <f t="shared" si="5"/>
         <v>-6.7000000000000004E-2</v>
       </c>
@@ -3758,54 +3746,54 @@
       <c r="C47" s="1">
         <v>73</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="7">
+      <c r="D47" s="22"/>
+      <c r="E47" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <v>0.34699999999999998</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="13">
         <f t="shared" si="1"/>
         <v>2.7000000000000024E-2</v>
       </c>
-      <c r="R47" s="19">
+      <c r="R47" s="13">
         <f t="shared" si="2"/>
         <v>-0.10100000000000001</v>
       </c>
-      <c r="S47" s="19">
+      <c r="S47" s="13">
         <f t="shared" si="3"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="T47" s="19">
+      <c r="T47" s="13">
         <f t="shared" si="4"/>
         <v>-4.9000000000000016E-2</v>
       </c>
-      <c r="U47" s="19">
+      <c r="U47" s="13">
         <f t="shared" si="5"/>
         <v>3.7999999999999999E-2</v>
       </c>
@@ -3820,54 +3808,54 @@
       <c r="C48" s="1">
         <v>80</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="7">
+      <c r="D48" s="22"/>
+      <c r="E48" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="4">
         <v>0.316</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="4">
         <v>0.42299999999999999</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="4">
         <v>0.182</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>0.158</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="4">
         <v>0.371</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="Q48" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R48" s="19">
+      <c r="R48" s="13">
         <f t="shared" si="2"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="S48" s="19">
+      <c r="S48" s="13">
         <f t="shared" si="3"/>
         <v>1.699999999999996E-2</v>
       </c>
-      <c r="T48" s="19">
+      <c r="T48" s="13">
         <f t="shared" si="4"/>
         <v>5.1999999999999991E-2</v>
       </c>
-      <c r="U48" s="19">
+      <c r="U48" s="13">
         <f t="shared" si="5"/>
         <v>-0.21300000000000002</v>
       </c>
@@ -3882,57 +3870,57 @@
       <c r="C49" s="1">
         <v>34</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="7">
+      <c r="D49" s="22"/>
+      <c r="E49" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="4">
         <v>0.105</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="4">
         <v>0.115</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="4">
         <v>0.54500000000000004</v>
       </c>
       <c r="J49" t="s">
         <v>120</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="4">
         <v>0.161</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R49" s="19">
+      <c r="R49" s="13">
         <f t="shared" si="2"/>
         <v>3.4999999999999989E-2</v>
       </c>
-      <c r="S49" s="19">
+      <c r="S49" s="13">
         <f t="shared" si="3"/>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="T49" s="19">
+      <c r="T49" s="13">
         <f t="shared" si="4"/>
         <v>-6.2E-2</v>
       </c>
-      <c r="U49" s="19">
+      <c r="U49" s="13">
         <f t="shared" si="5"/>
         <v>0.20300000000000001</v>
       </c>
@@ -3947,54 +3935,54 @@
       <c r="C50" s="1">
         <v>35</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="7">
+      <c r="D50" s="22"/>
+      <c r="E50" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="4">
         <v>0.105</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="4">
         <v>0.25</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="4">
         <v>0.122</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q50" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R50" s="19">
+      <c r="R50" s="13">
         <f t="shared" si="2"/>
         <v>-1.100000000000001E-2</v>
       </c>
-      <c r="S50" s="19">
+      <c r="S50" s="13">
         <f t="shared" si="3"/>
         <v>-3.9999999999999994E-2</v>
       </c>
-      <c r="T50" s="19">
+      <c r="T50" s="13">
         <f t="shared" si="4"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="U50" s="19">
+      <c r="U50" s="13">
         <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
@@ -4009,54 +3997,54 @@
       <c r="C51" s="1">
         <v>57</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="7">
+      <c r="D51" s="22"/>
+      <c r="E51" s="4">
         <v>0.316</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="4">
         <v>0.158</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>0.186</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="4">
         <v>0.245</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="4">
         <v>0.21</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="13">
         <f t="shared" si="1"/>
         <v>2.7000000000000024E-2</v>
       </c>
-      <c r="R51" s="19">
+      <c r="R51" s="13">
         <f t="shared" si="2"/>
         <v>-2.7999999999999997E-2</v>
       </c>
-      <c r="S51" s="19">
+      <c r="S51" s="13">
         <f t="shared" si="3"/>
         <v>-4.7999999999999987E-2</v>
       </c>
-      <c r="T51" s="19">
+      <c r="T51" s="13">
         <f t="shared" si="4"/>
         <v>-1.2999999999999984E-2</v>
       </c>
-      <c r="U51" s="19">
+      <c r="U51" s="13">
         <f t="shared" si="5"/>
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -4071,54 +4059,54 @@
       <c r="C52" s="1">
         <v>68</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="7">
+      <c r="D52" s="22"/>
+      <c r="E52" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="4">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="4">
         <v>0.26500000000000001</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="Q52" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R52" s="19">
+      <c r="R52" s="13">
         <f t="shared" si="2"/>
         <v>5.400000000000002E-2</v>
       </c>
-      <c r="S52" s="19">
+      <c r="S52" s="13">
         <f t="shared" si="3"/>
         <v>6.3E-2</v>
       </c>
-      <c r="T52" s="19">
+      <c r="T52" s="13">
         <f t="shared" si="4"/>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="U52" s="19">
+      <c r="U52" s="13">
         <f t="shared" si="5"/>
         <v>-0.11500000000000002</v>
       </c>
@@ -4133,54 +4121,54 @@
       <c r="C53" s="1">
         <v>59</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="7">
+      <c r="D53" s="22"/>
+      <c r="E53" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="4">
         <v>0.23</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="4">
         <v>0.318</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="4">
         <v>0.158</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="4">
         <v>0.20399999999999999</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="4">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="13">
         <f t="shared" si="1"/>
         <v>-2.5999999999999995E-2</v>
       </c>
-      <c r="R53" s="19">
+      <c r="R53" s="13">
         <f t="shared" si="2"/>
         <v>9.9999999999999534E-3</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="13">
         <f t="shared" si="3"/>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="T53" s="19">
+      <c r="T53" s="13">
         <f t="shared" si="4"/>
         <v>-3.5000000000000031E-2</v>
       </c>
-      <c r="U53" s="19">
+      <c r="U53" s="13">
         <f t="shared" si="5"/>
         <v>0.10700000000000001</v>
       </c>
@@ -4195,57 +4183,57 @@
       <c r="C54" s="1">
         <v>49</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="7">
+      <c r="D54" s="22"/>
+      <c r="E54" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="4">
         <v>0.184</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="4">
         <v>0.254</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="4">
         <v>0.36399999999999999</v>
       </c>
       <c r="J54" t="s">
         <v>121</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q54" s="13">
         <f t="shared" si="1"/>
         <v>-1.2999999999999998E-2</v>
       </c>
-      <c r="R54" s="19">
+      <c r="R54" s="13">
         <f t="shared" si="2"/>
         <v>-2.4999999999999994E-2</v>
       </c>
-      <c r="S54" s="19">
+      <c r="S54" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="T54" s="19">
+      <c r="T54" s="13">
         <f t="shared" si="4"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="U54" s="19">
+      <c r="U54" s="13">
         <f t="shared" si="5"/>
         <v>-4.0000000000000036E-3</v>
       </c>
@@ -4260,54 +4248,54 @@
       <c r="C55" s="1">
         <v>21</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="7">
+      <c r="D55" s="22"/>
+      <c r="E55" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="13">
         <f t="shared" si="1"/>
         <v>1.2999999999999998E-2</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R55" s="13">
         <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S55" s="19">
+      <c r="S55" s="13">
         <f t="shared" si="3"/>
         <v>-1.999999999999999E-2</v>
       </c>
-      <c r="T55" s="19">
+      <c r="T55" s="13">
         <f t="shared" si="4"/>
         <v>-1.1999999999999997E-2</v>
       </c>
-      <c r="U55" s="19">
+      <c r="U55" s="13">
         <f t="shared" si="5"/>
         <v>-3.4000000000000002E-2</v>
       </c>
@@ -4322,54 +4310,54 @@
       <c r="C56" s="1">
         <v>57</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="7">
+      <c r="D56" s="22"/>
+      <c r="E56" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>0.27600000000000002</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="4">
         <v>0.224</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="4">
         <v>0.184</v>
       </c>
-      <c r="Q56" s="19">
+      <c r="Q56" s="13">
         <f t="shared" si="1"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R56" s="19">
+      <c r="R56" s="13">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="S56" s="19">
+      <c r="S56" s="13">
         <f t="shared" si="3"/>
         <v>3.8000000000000006E-2</v>
       </c>
-      <c r="T56" s="19">
+      <c r="T56" s="13">
         <f t="shared" si="4"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="U56" s="19">
+      <c r="U56" s="13">
         <f t="shared" si="5"/>
         <v>-4.7999999999999987E-2</v>
       </c>
@@ -4384,54 +4372,54 @@
       <c r="C57" s="1">
         <v>105</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="7">
+      <c r="D57" s="22"/>
+      <c r="E57" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="4">
         <v>0.437</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="4">
         <v>0.318</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="Q57" s="19">
+      <c r="Q57" s="13">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R57" s="19">
+      <c r="R57" s="13">
         <f t="shared" si="2"/>
         <v>-1.4000000000000012E-2</v>
       </c>
-      <c r="S57" s="19">
+      <c r="S57" s="13">
         <f t="shared" si="3"/>
         <v>-8.7999999999999967E-2</v>
       </c>
-      <c r="T57" s="19">
+      <c r="T57" s="13">
         <f t="shared" si="4"/>
         <v>9.7999999999999976E-2</v>
       </c>
-      <c r="U57" s="19">
+      <c r="U57" s="13">
         <f t="shared" si="5"/>
         <v>-4.9999999999999989E-2</v>
       </c>
@@ -4446,54 +4434,54 @@
       <c r="C58" s="1">
         <v>37</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="7">
+      <c r="D58" s="22"/>
+      <c r="E58" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
         <v>0.158</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="4">
         <v>0.18</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="4">
         <v>0.127</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="4">
         <v>0.184</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="Q58" s="19">
+      <c r="Q58" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R58" s="19">
+      <c r="R58" s="13">
         <f t="shared" si="2"/>
         <v>1.7999999999999988E-2</v>
       </c>
-      <c r="S58" s="19">
+      <c r="S58" s="13">
         <f t="shared" si="3"/>
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="T58" s="19">
+      <c r="T58" s="13">
         <f t="shared" si="4"/>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="U58" s="19">
+      <c r="U58" s="13">
         <f t="shared" si="5"/>
         <v>9.5000000000000001E-2</v>
       </c>
@@ -4508,57 +4496,57 @@
       <c r="C59" s="1">
         <v>37</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="7">
+      <c r="D59" s="22"/>
+      <c r="E59" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="4">
         <v>0.183</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="4">
         <v>0.22700000000000001</v>
       </c>
       <c r="J59" t="s">
         <v>122</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q59" s="19">
+      <c r="Q59" s="13">
         <f t="shared" si="1"/>
         <v>-1.2999999999999998E-2</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="13">
         <f t="shared" si="2"/>
         <v>-3.7000000000000005E-2</v>
       </c>
-      <c r="S59" s="19">
+      <c r="S59" s="13">
         <f t="shared" si="3"/>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="T59" s="19">
+      <c r="T59" s="13">
         <f t="shared" si="4"/>
         <v>-1.100000000000001E-2</v>
       </c>
-      <c r="U59" s="19">
+      <c r="U59" s="13">
         <f t="shared" si="5"/>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -4573,54 +4561,54 @@
       <c r="C60" s="1">
         <v>6</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="7">
+      <c r="D60" s="22"/>
+      <c r="E60" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q60" s="19">
+      <c r="Q60" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R60" s="19" t="e">
+      <c r="R60" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S60" s="19" t="e">
+      <c r="S60" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T60" s="19">
+      <c r="T60" s="13">
         <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
-      <c r="U60" s="19">
+      <c r="U60" s="13">
         <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
@@ -4635,54 +4623,54 @@
       <c r="C61" s="1">
         <v>5</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="7">
+      <c r="D61" s="22"/>
+      <c r="E61" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="L61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="4">
         <v>0.02</v>
       </c>
-      <c r="N61" s="6" t="s">
+      <c r="N61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="O61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q61" s="19">
+      <c r="Q61" s="13">
         <f>E61-K61</f>
         <v>0</v>
       </c>
-      <c r="R61" s="19" t="e">
+      <c r="R61" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S61" s="19">
+      <c r="S61" s="13">
         <f t="shared" si="3"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="T61" s="19" t="e">
+      <c r="T61" s="13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U61" s="19" t="e">
+      <c r="U61" s="13" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
@@ -4697,54 +4685,54 @@
       <c r="C62" s="1">
         <v>107</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="7">
+      <c r="D62" s="22"/>
+      <c r="E62" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="4">
         <v>0.41</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="4">
         <v>0.59099999999999997</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="4">
         <v>0.442</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="4">
         <v>0.40300000000000002</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="4">
         <v>0.60499999999999998</v>
       </c>
-      <c r="Q62" s="19">
+      <c r="Q62" s="13">
         <f t="shared" ref="Q62:Q83" si="6">E62-K62</f>
         <v>-2.5999999999999968E-2</v>
       </c>
-      <c r="R62" s="19">
+      <c r="R62" s="13">
         <f t="shared" ref="R62:R92" si="7">F62-L62</f>
         <v>-2.1000000000000019E-2</v>
       </c>
-      <c r="S62" s="19">
+      <c r="S62" s="13">
         <f t="shared" ref="S62:S92" si="8">G62-M62</f>
         <v>4.2999999999999983E-2</v>
       </c>
-      <c r="T62" s="19">
+      <c r="T62" s="13">
         <f t="shared" ref="T62:T92" si="9">H62-N62</f>
         <v>6.2E-2</v>
       </c>
-      <c r="U62" s="19">
+      <c r="U62" s="13">
         <f t="shared" ref="U62:U92" si="10">I62-O62</f>
         <v>-1.4000000000000012E-2</v>
       </c>
@@ -4759,54 +4747,54 @@
       <c r="C63" s="1">
         <v>80</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="7">
+      <c r="D63" s="22"/>
+      <c r="E63" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="4">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="4">
         <v>0.21</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="4">
         <v>0.184</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="Q63" s="13">
         <f t="shared" si="6"/>
         <v>2.7000000000000024E-2</v>
       </c>
-      <c r="R63" s="19">
+      <c r="R63" s="13">
         <f t="shared" si="7"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="S63" s="19">
+      <c r="S63" s="13">
         <f t="shared" si="8"/>
         <v>-1.4999999999999958E-2</v>
       </c>
-      <c r="T63" s="19">
+      <c r="T63" s="13">
         <f t="shared" si="9"/>
         <v>-1.2999999999999984E-2</v>
       </c>
-      <c r="U63" s="19">
+      <c r="U63" s="13">
         <f t="shared" si="10"/>
         <v>-9.2999999999999999E-2</v>
       </c>
@@ -4821,59 +4809,59 @@
       <c r="C64" s="1">
         <v>71</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="7">
+      <c r="D64" s="22"/>
+      <c r="E64" s="4">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="4">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="4">
         <v>0.184</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="4">
         <v>0.371</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="4">
         <v>0.184</v>
       </c>
-      <c r="Q64" s="19">
+      <c r="Q64" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R64" s="19">
+      <c r="R64" s="13">
         <f t="shared" si="7"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="S64" s="19">
+      <c r="S64" s="13">
         <f t="shared" si="8"/>
         <v>-1.999999999999999E-2</v>
       </c>
-      <c r="T64" s="19">
+      <c r="T64" s="13">
         <f t="shared" si="9"/>
         <v>-3.2999999999999974E-2</v>
       </c>
-      <c r="U64" s="19">
+      <c r="U64" s="13">
         <f t="shared" si="10"/>
         <v>8.9000000000000024E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>110</v>
       </c>
@@ -4883,59 +4871,59 @@
       <c r="C65" s="1">
         <v>10</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="7">
+      <c r="D65" s="22"/>
+      <c r="E65" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q65" s="19">
+      <c r="Q65" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R65" s="19">
+      <c r="R65" s="13">
         <f t="shared" si="7"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S65" s="19">
+      <c r="S65" s="13">
         <f t="shared" si="8"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="T65" s="19" t="e">
+      <c r="T65" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U65" s="19">
+      <c r="U65" s="13">
         <f t="shared" si="10"/>
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>111</v>
       </c>
@@ -4945,59 +4933,59 @@
       <c r="C66" s="1">
         <v>10</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="7">
+      <c r="D66" s="22"/>
+      <c r="E66" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="19">
+      <c r="Q66" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R66" s="19">
+      <c r="R66" s="13">
         <f t="shared" si="7"/>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="S66" s="19">
+      <c r="S66" s="13">
         <f t="shared" si="8"/>
         <v>-1.1999999999999997E-2</v>
       </c>
-      <c r="T66" s="19">
+      <c r="T66" s="13">
         <f t="shared" si="9"/>
         <v>1.2E-2</v>
       </c>
-      <c r="U66" s="19" t="e">
+      <c r="U66" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>111</v>
       </c>
@@ -5007,59 +4995,59 @@
       <c r="C67" s="1">
         <v>169</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="7">
+      <c r="D67" s="22"/>
+      <c r="E67" s="4">
         <v>0.64500000000000002</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="4">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="4">
         <v>0.59199999999999997</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <v>0.67400000000000004</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="4">
         <v>0.59199999999999997</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="4">
         <v>0.629</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q67" s="13">
         <f t="shared" si="6"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R67" s="13">
         <f t="shared" si="7"/>
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="S67" s="19">
+      <c r="S67" s="13">
         <f t="shared" si="8"/>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="T67" s="19">
+      <c r="T67" s="13">
         <f t="shared" si="9"/>
         <v>-3.7000000000000033E-2</v>
       </c>
-      <c r="U67" s="19">
+      <c r="U67" s="13">
         <f t="shared" si="10"/>
         <v>9.4999999999999973E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
@@ -5069,245 +5057,245 @@
       <c r="C68" s="1">
         <v>89</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="7">
+      <c r="D68" s="22"/>
+      <c r="E68" s="4">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="4">
         <v>0.316</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="4">
         <v>0.38</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="4">
         <v>0.316</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="4">
         <v>0.34699999999999998</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="Q68" s="19">
+      <c r="Q68" s="13">
         <f t="shared" si="6"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R68" s="19">
+      <c r="R68" s="13">
         <f t="shared" si="7"/>
         <v>3.6999999999999977E-2</v>
       </c>
-      <c r="S68" s="19">
+      <c r="S68" s="13">
         <f t="shared" si="8"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="T68" s="19">
+      <c r="T68" s="13">
         <f t="shared" si="9"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="U68" s="19">
+      <c r="U68" s="13">
         <f t="shared" si="10"/>
         <v>-9.4999999999999973E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>55</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="7">
+      <c r="D69" s="22"/>
+      <c r="E69" s="4">
         <v>0.158</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="4">
         <v>0.158</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="4">
         <v>0.23</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="4">
         <v>0.245</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q69" s="13">
         <f t="shared" si="6"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R69" s="19">
+      <c r="R69" s="13">
         <f t="shared" si="7"/>
         <v>1.7999999999999988E-2</v>
       </c>
-      <c r="S69" s="19">
+      <c r="S69" s="13">
         <f t="shared" si="8"/>
         <v>-1.4999999999999986E-2</v>
       </c>
-      <c r="T69" s="19">
+      <c r="T69" s="13">
         <f t="shared" si="9"/>
         <v>-1.9000000000000017E-2</v>
       </c>
-      <c r="U69" s="19">
+      <c r="U69" s="13">
         <f t="shared" si="10"/>
         <v>6.2000000000000027E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="1">
         <v>90</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="7">
+      <c r="D70" s="22"/>
+      <c r="E70" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="4">
         <v>0.36599999999999999</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="4">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="4">
         <v>0.30599999999999999</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q70" s="19">
+      <c r="Q70" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R70" s="19">
+      <c r="R70" s="13">
         <f t="shared" si="7"/>
         <v>-0.17600000000000005</v>
       </c>
-      <c r="S70" s="19">
+      <c r="S70" s="13">
         <f t="shared" si="8"/>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="T70" s="19">
+      <c r="T70" s="13">
         <f t="shared" si="9"/>
         <v>0.06</v>
       </c>
-      <c r="U70" s="19">
+      <c r="U70" s="13">
         <f t="shared" si="10"/>
         <v>-1.5999999999999959E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="1">
         <v>123</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="7">
+      <c r="D71" s="22"/>
+      <c r="E71" s="4">
         <v>0.5</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="4">
         <v>0.39400000000000002</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>0.48699999999999999</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="4">
         <v>0.46899999999999997</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="4">
         <v>0.435</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q71" s="19">
+      <c r="Q71" s="13">
         <f t="shared" si="6"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R71" s="19">
+      <c r="R71" s="13">
         <f t="shared" si="7"/>
         <v>0.15800000000000003</v>
       </c>
-      <c r="S71" s="19">
+      <c r="S71" s="13">
         <f t="shared" si="8"/>
         <v>-4.2999999999999983E-2</v>
       </c>
-      <c r="T71" s="19">
+      <c r="T71" s="13">
         <f t="shared" si="9"/>
         <v>-4.0999999999999981E-2</v>
       </c>
-      <c r="U71" s="19">
+      <c r="U71" s="13">
         <f t="shared" si="10"/>
         <v>-4.4999999999999984E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -5317,59 +5305,59 @@
       <c r="C72" s="1">
         <v>78</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="7">
+      <c r="D72" s="22"/>
+      <c r="E72" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="4">
         <v>0.184</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="4">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="4">
         <v>0.182</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>0.434</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="4">
         <v>0.27900000000000003</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="4">
         <v>0.224</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72" s="4">
         <v>0.21</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="Q72" s="19">
+      <c r="Q72" s="13">
         <f t="shared" si="6"/>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="R72" s="19">
+      <c r="R72" s="13">
         <f t="shared" si="7"/>
         <v>-9.5000000000000029E-2</v>
       </c>
-      <c r="S72" s="19">
+      <c r="S72" s="13">
         <f t="shared" si="8"/>
         <v>0.10400000000000001</v>
       </c>
-      <c r="T72" s="19">
+      <c r="T72" s="13">
         <f t="shared" si="9"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="U72" s="19">
+      <c r="U72" s="13">
         <f t="shared" si="10"/>
         <v>-5.4999999999999993E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
@@ -5379,198 +5367,186 @@
       <c r="C73" s="1">
         <v>190</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="7">
+      <c r="D73" s="22"/>
+      <c r="E73" s="4">
         <v>0.57899999999999996</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="4">
         <v>0.67200000000000004</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="4">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="4">
         <v>0.56599999999999995</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="4">
         <v>0.72099999999999997</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="4">
         <v>0.77600000000000002</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73" s="4">
         <v>0.79</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="Q73" s="19">
+      <c r="Q73" s="13">
         <f t="shared" si="6"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R73" s="19">
+      <c r="R73" s="13">
         <f t="shared" si="7"/>
         <v>9.4999999999999973E-2</v>
       </c>
-      <c r="S73" s="19">
+      <c r="S73" s="13">
         <f t="shared" si="8"/>
         <v>-0.10399999999999998</v>
       </c>
-      <c r="T73" s="19">
+      <c r="T73" s="13">
         <f t="shared" si="9"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="U73" s="19">
+      <c r="U73" s="13">
         <f t="shared" si="10"/>
         <v>5.4999999999999938E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="25">
+      <c r="C74" s="1">
         <v>206</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="26">
+      <c r="D74" s="22"/>
+      <c r="E74" s="19">
         <v>0.86799999999999999</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="19">
         <v>0.76300000000000001</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="19">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H74" s="26">
+      <c r="H74" s="19">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="19">
         <v>0.72699999999999998</v>
       </c>
       <c r="J74" t="s">
         <v>123</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="19">
         <v>0.89500000000000002</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L74" s="19">
         <v>0.72099999999999997</v>
       </c>
-      <c r="M74" s="28">
+      <c r="M74" s="19">
         <v>0.69399999999999995</v>
       </c>
-      <c r="N74" s="28">
+      <c r="N74" s="19">
         <v>0.74199999999999999</v>
       </c>
-      <c r="O74" s="28">
+      <c r="O74" s="19">
         <v>0.71099999999999997</v>
       </c>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="30">
+      <c r="Q74" s="13">
         <f t="shared" si="6"/>
         <v>-2.7000000000000024E-2</v>
       </c>
-      <c r="R74" s="30">
+      <c r="R74" s="13">
         <f t="shared" si="7"/>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="S74" s="30">
+      <c r="S74" s="13">
         <f t="shared" si="8"/>
         <v>2.7000000000000024E-2</v>
       </c>
-      <c r="T74" s="30">
+      <c r="T74" s="13">
         <f t="shared" si="9"/>
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="U74" s="30">
+      <c r="U74" s="13">
         <f t="shared" si="10"/>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-    </row>
-    <row r="75" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="1">
         <v>62</v>
       </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="26">
+      <c r="D75" s="22"/>
+      <c r="E75" s="19">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="19">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="19">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="19">
         <v>0.28199999999999997</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="19">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K75" s="28">
+      <c r="K75" s="19">
         <v>0.105</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="19">
         <v>0.27900000000000003</v>
       </c>
-      <c r="M75" s="28">
+      <c r="M75" s="19">
         <v>0.30599999999999999</v>
       </c>
-      <c r="N75" s="28">
+      <c r="N75" s="19">
         <v>0.25800000000000001</v>
       </c>
-      <c r="O75" s="28">
+      <c r="O75" s="19">
         <v>0.28899999999999998</v>
       </c>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="30">
+      <c r="Q75" s="13">
         <f t="shared" si="6"/>
         <v>2.700000000000001E-2</v>
       </c>
-      <c r="R75" s="30">
+      <c r="R75" s="13">
         <f t="shared" si="7"/>
         <v>-4.2000000000000037E-2</v>
       </c>
-      <c r="S75" s="30">
+      <c r="S75" s="13">
         <f t="shared" si="8"/>
         <v>-2.6999999999999968E-2</v>
       </c>
-      <c r="T75" s="30">
+      <c r="T75" s="13">
         <f t="shared" si="9"/>
         <v>2.3999999999999966E-2</v>
       </c>
-      <c r="U75" s="30">
+      <c r="U75" s="13">
         <f t="shared" si="10"/>
         <v>-1.5999999999999959E-2</v>
       </c>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -5580,59 +5556,59 @@
       <c r="C76" s="1">
         <v>195</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="7">
+      <c r="D76" s="22"/>
+      <c r="E76" s="4">
         <v>0.75</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="4">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="4">
         <v>0.70499999999999996</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="4">
         <v>0.73199999999999998</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="4">
         <v>0.73699999999999999</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="4">
         <v>0.86</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="4">
         <v>0.73499999999999999</v>
       </c>
-      <c r="N76" s="5">
+      <c r="N76" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q76" s="19">
+      <c r="Q76" s="13">
         <f t="shared" si="6"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="R76" s="19">
+      <c r="R76" s="13">
         <f t="shared" si="7"/>
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="S76" s="19">
+      <c r="S76" s="13">
         <f t="shared" si="8"/>
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="T76" s="19">
+      <c r="T76" s="13">
         <f t="shared" si="9"/>
         <v>-2.6000000000000023E-2</v>
       </c>
-      <c r="U76" s="19">
+      <c r="U76" s="13">
         <f t="shared" si="10"/>
         <v>4.500000000000004E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -5642,59 +5618,59 @@
       <c r="C77" s="1">
         <v>42</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="7">
+      <c r="D77" s="22"/>
+      <c r="E77" s="4">
         <v>0.158</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="4">
         <v>0.105</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="4">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="4">
         <v>0.113</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="4">
         <v>0.158</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="4">
         <v>0.184</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77" s="4">
         <v>0.129</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q77" s="19">
+      <c r="Q77" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R77" s="19">
+      <c r="R77" s="13">
         <f t="shared" si="7"/>
         <v>-1.100000000000001E-2</v>
       </c>
-      <c r="S77" s="19">
+      <c r="S77" s="13">
         <f t="shared" si="8"/>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="T77" s="19">
+      <c r="T77" s="13">
         <f t="shared" si="9"/>
         <v>-1.6E-2</v>
       </c>
-      <c r="U77" s="19">
+      <c r="U77" s="13">
         <f t="shared" si="10"/>
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>115</v>
       </c>
@@ -5704,59 +5680,59 @@
       <c r="C78" s="1">
         <v>29</v>
       </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="7">
+      <c r="D78" s="22"/>
+      <c r="E78" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="4">
         <v>0.155</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="4">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78" s="4">
         <v>0.113</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q78" s="19">
+      <c r="Q78" s="13">
         <f t="shared" si="6"/>
         <v>-1.2999999999999998E-2</v>
       </c>
-      <c r="R78" s="19">
+      <c r="R78" s="13">
         <f t="shared" si="7"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="S78" s="19">
+      <c r="S78" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T78" s="19">
+      <c r="T78" s="13">
         <f t="shared" si="9"/>
         <v>4.1999999999999996E-2</v>
       </c>
-      <c r="U78" s="19">
+      <c r="U78" s="13">
         <f t="shared" si="10"/>
         <v>-6.1999999999999972E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>115</v>
       </c>
@@ -5766,178 +5742,178 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="7">
+      <c r="D79" s="22"/>
+      <c r="E79" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L79" s="6" t="s">
+      <c r="L79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M79" s="6" t="s">
+      <c r="M79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="6" t="s">
+      <c r="N79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O79" s="6" t="s">
+      <c r="O79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q79" s="19">
+      <c r="Q79" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R79" s="19" t="e">
+      <c r="R79" s="13" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S79" s="19" t="e">
+      <c r="S79" s="13" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T79" s="19" t="e">
+      <c r="T79" s="13" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U79" s="19" t="e">
+      <c r="U79" s="13" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="1">
         <v>133</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="7">
+      <c r="D80" s="22"/>
+      <c r="E80" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="4">
         <v>0.443</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="4">
         <v>0.47099999999999997</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="4">
         <v>0.67100000000000004</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="4">
         <v>0.46899999999999997</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80" s="4">
         <v>0.41</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q80" s="19">
+      <c r="Q80" s="13">
         <f t="shared" si="6"/>
         <v>-3.9000000000000035E-2</v>
       </c>
-      <c r="R80" s="19">
+      <c r="R80" s="13">
         <f t="shared" si="7"/>
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="S80" s="19">
+      <c r="S80" s="13">
         <f t="shared" si="8"/>
         <v>-2.5999999999999968E-2</v>
       </c>
-      <c r="T80" s="19">
+      <c r="T80" s="13">
         <f t="shared" si="9"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="U80" s="19">
+      <c r="U80" s="13">
         <f t="shared" si="10"/>
         <v>6.6999999999999948E-2</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="1">
         <v>121</v>
       </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="7">
+      <c r="D81" s="22"/>
+      <c r="E81" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="4">
         <v>0.47099999999999997</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="4">
         <v>0.316</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="4">
         <v>0.44900000000000001</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81" s="4">
         <v>0.50800000000000001</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="Q81" s="19">
+      <c r="Q81" s="13">
         <f t="shared" si="6"/>
         <v>3.8999999999999979E-2</v>
       </c>
-      <c r="R81" s="19">
+      <c r="R81" s="13">
         <f t="shared" si="7"/>
         <v>8.8000000000000023E-2</v>
       </c>
-      <c r="S81" s="19">
+      <c r="S81" s="13">
         <f t="shared" si="8"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="T81" s="19">
+      <c r="T81" s="13">
         <f t="shared" si="9"/>
         <v>-3.7000000000000033E-2</v>
       </c>
-      <c r="U81" s="19">
+      <c r="U81" s="13">
         <f t="shared" si="10"/>
         <v>-8.6999999999999966E-2</v>
       </c>
@@ -5952,54 +5928,54 @@
       <c r="C82" s="1">
         <v>13</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="7">
+      <c r="D82" s="22"/>
+      <c r="E82" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="M82" s="5">
+      <c r="M82" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N82" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q82" s="19">
+      <c r="Q82" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R82" s="19">
+      <c r="R82" s="13">
         <f t="shared" si="7"/>
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="S82" s="19">
+      <c r="S82" s="13">
         <f t="shared" si="8"/>
         <v>1.6E-2</v>
       </c>
-      <c r="T82" s="19">
+      <c r="T82" s="13">
         <f t="shared" si="9"/>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="U82" s="19">
+      <c r="U82" s="13">
         <f t="shared" si="10"/>
         <v>1.9E-2</v>
       </c>
@@ -6014,54 +5990,54 @@
       <c r="C83" s="1">
         <v>121</v>
       </c>
-      <c r="D83" s="33"/>
-      <c r="E83" s="7">
+      <c r="D83" s="22"/>
+      <c r="E83" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="4">
         <v>0.3</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="4">
         <v>0.318</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="4">
         <v>0.63200000000000001</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="M83" s="5">
+      <c r="M83" s="4">
         <v>0.40799999999999997</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83" s="4">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="Q83" s="19">
+      <c r="Q83" s="13">
         <f t="shared" si="6"/>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="R83" s="19">
+      <c r="R83" s="13">
         <f t="shared" si="7"/>
         <v>-1.8000000000000016E-2</v>
       </c>
-      <c r="S83" s="19">
+      <c r="S83" s="13">
         <f t="shared" si="8"/>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="T83" s="19">
+      <c r="T83" s="13">
         <f t="shared" si="9"/>
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="U83" s="19">
+      <c r="U83" s="13">
         <f t="shared" si="10"/>
         <v>2.9000000000000026E-2</v>
       </c>
@@ -6076,54 +6052,54 @@
       <c r="C84" s="1">
         <v>95</v>
       </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="7">
+      <c r="D84" s="22"/>
+      <c r="E84" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="4">
         <v>0.45700000000000002</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="4">
         <v>0.224</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="4">
         <v>0.34899999999999998</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="N84" s="5">
+      <c r="N84" s="4">
         <v>0.39300000000000002</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84" s="4">
         <v>0.55300000000000005</v>
       </c>
-      <c r="Q84" s="19">
+      <c r="Q84" s="13">
         <f>E84-K84</f>
         <v>-2.6999999999999996E-2</v>
       </c>
-      <c r="R84" s="19">
+      <c r="R84" s="13">
         <f t="shared" si="7"/>
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="S84" s="19">
+      <c r="S84" s="13">
         <f t="shared" si="8"/>
         <v>-2.300000000000002E-2</v>
       </c>
-      <c r="T84" s="19">
+      <c r="T84" s="13">
         <f t="shared" si="9"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="U84" s="19">
+      <c r="U84" s="13">
         <f t="shared" si="10"/>
         <v>-8.0000000000000071E-3</v>
       </c>
@@ -6138,54 +6114,54 @@
       <c r="C85" s="1">
         <v>51</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="7">
+      <c r="D85" s="22"/>
+      <c r="E85" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="4">
         <v>0.158</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="4">
         <v>0.23</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="4">
         <v>0.24299999999999999</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="4">
         <v>0.186</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="4">
         <v>0.224</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N85" s="4">
         <v>0.246</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85" s="4">
         <v>0.158</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q85" s="13">
         <f t="shared" ref="Q85:Q92" si="11">E85-K85</f>
         <v>0</v>
       </c>
-      <c r="R85" s="19">
+      <c r="R85" s="13">
         <f t="shared" si="7"/>
         <v>-2.7999999999999997E-2</v>
       </c>
-      <c r="S85" s="19">
+      <c r="S85" s="13">
         <f t="shared" si="8"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="T85" s="19">
+      <c r="T85" s="13">
         <f t="shared" si="9"/>
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="U85" s="19">
+      <c r="U85" s="13">
         <f t="shared" si="10"/>
         <v>-2.1999999999999992E-2</v>
       </c>
@@ -6200,82 +6176,82 @@
       <c r="C86" s="1">
         <v>48.41</v>
       </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="10">
+      <c r="D86" s="22"/>
+      <c r="E86" s="7">
         <v>49.868000000000002</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="7">
         <v>52.737000000000002</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="7">
         <v>48.753999999999998</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="7">
         <v>46.338000000000001</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="7">
         <v>41.636000000000003</v>
       </c>
-      <c r="K86" s="23">
+      <c r="K86" s="17">
         <v>50.341999999999999</v>
       </c>
-      <c r="L86" s="23">
+      <c r="L86" s="17">
         <v>50.744</v>
       </c>
-      <c r="M86" s="23">
+      <c r="M86" s="17">
         <v>52.082000000000001</v>
       </c>
-      <c r="N86" s="23">
+      <c r="N86" s="17">
         <v>44.354999999999997</v>
       </c>
-      <c r="O86" s="23">
+      <c r="O86" s="17">
         <v>43.789000000000001</v>
       </c>
-      <c r="Q86" s="20">
+      <c r="Q86" s="14">
         <f t="shared" si="11"/>
         <v>-0.47399999999999665</v>
       </c>
-      <c r="R86" s="20">
+      <c r="R86" s="14">
         <f t="shared" si="7"/>
         <v>1.9930000000000021</v>
       </c>
-      <c r="S86" s="20">
+      <c r="S86" s="14">
         <f t="shared" si="8"/>
         <v>-3.328000000000003</v>
       </c>
-      <c r="T86" s="20">
+      <c r="T86" s="14">
         <f t="shared" si="9"/>
         <v>1.9830000000000041</v>
       </c>
-      <c r="U86" s="20">
+      <c r="U86" s="14">
         <f t="shared" si="10"/>
         <v>-2.1529999999999987</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>76535.581000000006</v>
       </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="11">
+      <c r="D87" s="22"/>
+      <c r="E87" s="8">
         <v>66600</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="8">
         <v>93947.368000000002</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="8">
         <v>71229.508000000002</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="8">
         <v>83169.013999999996</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="8">
         <v>73636.364000000001</v>
       </c>
       <c r="J87" t="s">
@@ -6296,23 +6272,23 @@
       <c r="O87" s="1">
         <v>77894.736999999994</v>
       </c>
-      <c r="Q87" s="21">
+      <c r="Q87" s="15">
         <f t="shared" si="11"/>
         <v>4933.3329999999987</v>
       </c>
-      <c r="R87" s="21">
+      <c r="R87" s="15">
         <f t="shared" si="7"/>
         <v>14993.880000000005</v>
       </c>
-      <c r="S87" s="21">
+      <c r="S87" s="15">
         <f t="shared" si="8"/>
         <v>-18260.288</v>
       </c>
-      <c r="T87" s="21">
+      <c r="T87" s="15">
         <f t="shared" si="9"/>
         <v>1394.8199999999924</v>
       </c>
-      <c r="U87" s="21">
+      <c r="U87" s="15">
         <f t="shared" si="10"/>
         <v>-4258.3729999999923</v>
       </c>
@@ -6327,20 +6303,20 @@
       <c r="C88" s="1">
         <v>2.8690000000000002</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="10">
+      <c r="D88" s="22"/>
+      <c r="E88" s="7">
         <v>2.8029999999999999</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="7">
         <v>2.5529999999999999</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="7">
         <v>2.8029999999999999</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="7">
         <v>3.0419999999999998</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="7">
         <v>3.2730000000000001</v>
       </c>
       <c r="K88" s="1">
@@ -6358,23 +6334,23 @@
       <c r="O88" s="1">
         <v>3.2890000000000001</v>
       </c>
-      <c r="Q88" s="20">
+      <c r="Q88" s="14">
         <f t="shared" si="11"/>
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="R88" s="20">
+      <c r="R88" s="14">
         <f t="shared" si="7"/>
         <v>-0.23799999999999999</v>
       </c>
-      <c r="S88" s="20">
+      <c r="S88" s="14">
         <f t="shared" si="8"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="T88" s="20">
+      <c r="T88" s="14">
         <f t="shared" si="9"/>
         <v>5.7999999999999829E-2</v>
       </c>
-      <c r="U88" s="20">
+      <c r="U88" s="14">
         <f t="shared" si="10"/>
         <v>-1.6000000000000014E-2</v>
       </c>
@@ -6389,20 +6365,20 @@
       <c r="C89" s="1">
         <v>0</v>
       </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="10">
+      <c r="D89" s="22"/>
+      <c r="E89" s="7">
         <v>-0.84</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="7">
         <v>-0.222</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="7">
         <v>0.217</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="7">
         <v>0.73</v>
       </c>
       <c r="K89" s="1">
@@ -6420,23 +6396,23 @@
       <c r="O89" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="Q89" s="20">
+      <c r="Q89" s="14">
         <f t="shared" si="11"/>
         <v>-3.5999999999999921E-2</v>
       </c>
-      <c r="R89" s="20">
+      <c r="R89" s="14">
         <f t="shared" si="7"/>
         <v>-0.155</v>
       </c>
-      <c r="S89" s="20">
+      <c r="S89" s="14">
         <f t="shared" si="8"/>
         <v>0.30499999999999999</v>
       </c>
-      <c r="T89" s="20">
+      <c r="T89" s="14">
         <f t="shared" si="9"/>
         <v>-9.000000000000008E-3</v>
       </c>
-      <c r="U89" s="20">
+      <c r="U89" s="14">
         <f t="shared" si="10"/>
         <v>-6.5000000000000058E-2</v>
       </c>
@@ -6451,20 +6427,20 @@
       <c r="C90" s="1">
         <v>0</v>
       </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="10">
+      <c r="D90" s="22"/>
+      <c r="E90" s="7">
         <v>0.32700000000000001</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="7">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="7">
         <v>-0.21</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="7">
         <v>-0.313</v>
       </c>
       <c r="K90" s="1">
@@ -6482,23 +6458,23 @@
       <c r="O90" s="1">
         <v>-0.26</v>
       </c>
-      <c r="Q90" s="20">
+      <c r="Q90" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R90" s="20">
+      <c r="R90" s="14">
         <f t="shared" si="7"/>
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="S90" s="20">
+      <c r="S90" s="14">
         <f t="shared" si="8"/>
         <v>7.8000000000000014E-2</v>
       </c>
-      <c r="T90" s="20">
+      <c r="T90" s="14">
         <f t="shared" si="9"/>
         <v>-2.1999999999999992E-2</v>
       </c>
-      <c r="U90" s="20">
+      <c r="U90" s="14">
         <f t="shared" si="10"/>
         <v>-5.2999999999999992E-2</v>
       </c>
@@ -6513,20 +6489,20 @@
       <c r="C91" s="1">
         <v>1.7749999999999999</v>
       </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="10">
+      <c r="D91" s="22"/>
+      <c r="E91" s="7">
         <v>1.645</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="7">
         <v>1.605</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="7">
         <v>1.9179999999999999</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="7">
         <v>1.9430000000000001</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="7">
         <v>1.591</v>
       </c>
       <c r="K91" s="1">
@@ -6544,49 +6520,46 @@
       <c r="O91" s="1">
         <v>1.8680000000000001</v>
       </c>
-      <c r="Q91" s="20">
+      <c r="Q91" s="14">
         <f t="shared" si="11"/>
         <v>-3.8999999999999924E-2</v>
       </c>
-      <c r="R91" s="20">
+      <c r="R91" s="14">
         <f t="shared" si="7"/>
         <v>0.16300000000000003</v>
       </c>
-      <c r="S91" s="20">
+      <c r="S91" s="14">
         <f t="shared" si="8"/>
         <v>-0.10200000000000009</v>
       </c>
-      <c r="T91" s="20">
+      <c r="T91" s="14">
         <f t="shared" si="9"/>
         <v>7.4000000000000066E-2</v>
       </c>
-      <c r="U91" s="20">
+      <c r="U91" s="14">
         <f t="shared" si="10"/>
         <v>-0.27700000000000014</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="34"/>
-      <c r="Q92" s="20">
+      <c r="Q92" s="14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R92" s="20">
+      <c r="R92" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S92" s="20">
+      <c r="S92" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T92" s="20">
+      <c r="T92" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U92" s="20">
+      <c r="U92" s="14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6595,7 +6568,7 @@
       <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
+      <c r="A94" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6626,4 +6599,2174 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FBB2F5-E64C-524A-BCE8-F1BBF04DECD7}">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>626</v>
+      </c>
+      <c r="E3" s="1">
+        <v>259</v>
+      </c>
+      <c r="F3" s="1">
+        <v>367</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>381</v>
+      </c>
+      <c r="E4" s="1">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1">
+        <v>209</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>930</v>
+      </c>
+      <c r="E7" s="1">
+        <v>389</v>
+      </c>
+      <c r="F7" s="1">
+        <v>541</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>716</v>
+      </c>
+      <c r="E8" s="1">
+        <v>278</v>
+      </c>
+      <c r="F8" s="1">
+        <v>438</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1">
+        <v>63</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.214</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>157</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1">
+        <v>90</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>132</v>
+      </c>
+      <c r="F11" s="1">
+        <v>69</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1">
+        <v>171</v>
+      </c>
+      <c r="F12" s="1">
+        <v>201</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>294</v>
+      </c>
+      <c r="E13" s="1">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.214</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>161</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>119</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>914</v>
+      </c>
+      <c r="E16" s="1">
+        <v>404</v>
+      </c>
+      <c r="F16" s="1">
+        <v>510</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1">
+        <v>435</v>
+      </c>
+      <c r="E18" s="1">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1">
+        <v>291</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>208</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1">
+        <v>128</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.182</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>374</v>
+      </c>
+      <c r="E20" s="1">
+        <v>212</v>
+      </c>
+      <c r="F20" s="1">
+        <v>162</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>504</v>
+      </c>
+      <c r="E22" s="1">
+        <v>205</v>
+      </c>
+      <c r="F22" s="1">
+        <v>299</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>464</v>
+      </c>
+      <c r="E23" s="1">
+        <v>216</v>
+      </c>
+      <c r="F23" s="1">
+        <v>248</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>36</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1">
+        <v>622</v>
+      </c>
+      <c r="E25" s="1">
+        <v>243</v>
+      </c>
+      <c r="F25" s="1">
+        <v>379</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>105</v>
+      </c>
+      <c r="E26" s="1">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1">
+        <v>64</v>
+      </c>
+      <c r="G26" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>251</v>
+      </c>
+      <c r="E27" s="1">
+        <v>129</v>
+      </c>
+      <c r="F27" s="1">
+        <v>122</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1">
+        <v>62</v>
+      </c>
+      <c r="F29" s="1">
+        <v>24</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="H30" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>350</v>
+      </c>
+      <c r="E31" s="1">
+        <v>159</v>
+      </c>
+      <c r="F31" s="1">
+        <v>191</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1">
+        <v>376</v>
+      </c>
+      <c r="E32" s="1">
+        <v>128</v>
+      </c>
+      <c r="F32" s="1">
+        <v>248</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1">
+        <v>35</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>178</v>
+      </c>
+      <c r="E35" s="1">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1">
+        <v>115</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1">
+        <v>382</v>
+      </c>
+      <c r="E36" s="1">
+        <v>171</v>
+      </c>
+      <c r="F36" s="1">
+        <v>211</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1">
+        <v>281</v>
+      </c>
+      <c r="E37" s="1">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1">
+        <v>177</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1">
+        <v>128</v>
+      </c>
+      <c r="E38" s="1">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1">
+        <v>63</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1">
+        <v>236</v>
+      </c>
+      <c r="E39" s="1">
+        <v>101</v>
+      </c>
+      <c r="F39" s="1">
+        <v>135</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1">
+        <v>298</v>
+      </c>
+      <c r="E40" s="1">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1">
+        <v>177</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1">
+        <v>244</v>
+      </c>
+      <c r="E41" s="1">
+        <v>114</v>
+      </c>
+      <c r="F41" s="1">
+        <v>130</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1">
+        <v>180</v>
+      </c>
+      <c r="E42" s="1">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1">
+        <v>108</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1">
+        <v>71</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1">
+        <v>41</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1">
+        <v>145</v>
+      </c>
+      <c r="E44" s="1">
+        <v>81</v>
+      </c>
+      <c r="F44" s="1">
+        <v>64</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1">
+        <v>257</v>
+      </c>
+      <c r="E45" s="1">
+        <v>85</v>
+      </c>
+      <c r="F45" s="1">
+        <v>172</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1">
+        <v>269</v>
+      </c>
+      <c r="E46" s="1">
+        <v>125</v>
+      </c>
+      <c r="F46" s="1">
+        <v>144</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1">
+        <v>267</v>
+      </c>
+      <c r="E47" s="1">
+        <v>104</v>
+      </c>
+      <c r="F47" s="1">
+        <v>163</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1">
+        <v>91</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1">
+        <v>48</v>
+      </c>
+      <c r="G48" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H48" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1">
+        <v>135</v>
+      </c>
+      <c r="E49" s="1">
+        <v>67</v>
+      </c>
+      <c r="F49" s="1">
+        <v>68</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1">
+        <v>262</v>
+      </c>
+      <c r="E50" s="1">
+        <v>118</v>
+      </c>
+      <c r="F50" s="1">
+        <v>144</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1">
+        <v>293</v>
+      </c>
+      <c r="E51" s="1">
+        <v>138</v>
+      </c>
+      <c r="F51" s="1">
+        <v>155</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.315</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="1">
+        <v>159</v>
+      </c>
+      <c r="E52" s="1">
+        <v>47</v>
+      </c>
+      <c r="F52" s="1">
+        <v>112</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1">
+        <v>180</v>
+      </c>
+      <c r="E53" s="1">
+        <v>68</v>
+      </c>
+      <c r="F53" s="1">
+        <v>112</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1">
+        <v>26</v>
+      </c>
+      <c r="G54" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1">
+        <v>203</v>
+      </c>
+      <c r="E55" s="1">
+        <v>94</v>
+      </c>
+      <c r="F55" s="1">
+        <v>109</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.215</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1">
+        <v>330</v>
+      </c>
+      <c r="E56" s="1">
+        <v>171</v>
+      </c>
+      <c r="F56" s="1">
+        <v>159</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="1">
+        <v>207</v>
+      </c>
+      <c r="E57" s="1">
+        <v>60</v>
+      </c>
+      <c r="F57" s="1">
+        <v>147</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="1">
+        <v>172</v>
+      </c>
+      <c r="E58" s="1">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1">
+        <v>118</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.123</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="1">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="1">
+        <v>427</v>
+      </c>
+      <c r="E61" s="1">
+        <v>181</v>
+      </c>
+      <c r="F61" s="1">
+        <v>246</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1">
+        <v>275</v>
+      </c>
+      <c r="E62" s="1">
+        <v>133</v>
+      </c>
+      <c r="F62" s="1">
+        <v>142</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1">
+        <v>292</v>
+      </c>
+      <c r="E63" s="1">
+        <v>108</v>
+      </c>
+      <c r="F63" s="1">
+        <v>184</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.247</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="1">
+        <v>35</v>
+      </c>
+      <c r="E64" s="1">
+        <v>16</v>
+      </c>
+      <c r="F64" s="1">
+        <v>19</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H64" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42</v>
+      </c>
+      <c r="E65" s="1">
+        <v>41</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="1">
+        <v>566</v>
+      </c>
+      <c r="E66" s="1">
+        <v>305</v>
+      </c>
+      <c r="F66" s="1">
+        <v>261</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="1">
+        <v>422</v>
+      </c>
+      <c r="E67" s="1">
+        <v>93</v>
+      </c>
+      <c r="F67" s="1">
+        <v>329</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="1">
+        <v>195</v>
+      </c>
+      <c r="E68" s="1">
+        <v>140</v>
+      </c>
+      <c r="F68" s="1">
+        <v>55</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="H68" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="1">
+        <v>310</v>
+      </c>
+      <c r="E69" s="1">
+        <v>128</v>
+      </c>
+      <c r="F69" s="1">
+        <v>182</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1">
+        <v>525</v>
+      </c>
+      <c r="E70" s="1">
+        <v>171</v>
+      </c>
+      <c r="F70" s="1">
+        <v>354</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="1">
+        <v>329</v>
+      </c>
+      <c r="E71" s="1">
+        <v>171</v>
+      </c>
+      <c r="F71" s="1">
+        <v>158</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="1">
+        <v>701</v>
+      </c>
+      <c r="E72" s="1">
+        <v>268</v>
+      </c>
+      <c r="F72" s="1">
+        <v>433</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1">
+        <v>824</v>
+      </c>
+      <c r="E73" s="1">
+        <v>373</v>
+      </c>
+      <c r="F73" s="1">
+        <v>451</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="1">
+        <v>206</v>
+      </c>
+      <c r="E74" s="1">
+        <v>66</v>
+      </c>
+      <c r="F74" s="1">
+        <v>140</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="1">
+        <v>771</v>
+      </c>
+      <c r="E75" s="1">
+        <v>306</v>
+      </c>
+      <c r="F75" s="1">
+        <v>465</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="1">
+        <v>156</v>
+      </c>
+      <c r="E76" s="1">
+        <v>104</v>
+      </c>
+      <c r="F76" s="1">
+        <v>52</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H76" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="1">
+        <v>99</v>
+      </c>
+      <c r="E77" s="1">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1">
+        <v>74</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="1">
+        <v>23</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1">
+        <v>15</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>